--- a/biology/Médecine/Hôpital_Clemenceau/Hôpital_Clemenceau.xlsx
+++ b/biology/Médecine/Hôpital_Clemenceau/Hôpital_Clemenceau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Clemenceau</t>
+          <t>Hôpital_Clemenceau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,20 +490,22 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Georges-Clemenceau de Caen est un établissement hospitalier de Caen inauguré en 1908 par Georges Clemenceau. Situé à l’écart du centre-ville ancien de Caen sur la route de Ouistreham et conçu selon le modèle pavillonnaire, il remplace l'Hôtel-Dieu de Caen, alors installé dans l'ancienne abbaye aux Dames. Devenu centre hospitalier régional en 1945, c'était l'un des sites principaux du centre hospitalier régional universitaire de Caen.
-De 1925 à 1973, le pavillon 2 a accueilli le centre anticancéreux de Caen (actuel centre François-Baclesse)[1]. En 1960, dans l'ancienne glacière souterraine de l'Hôtel-Dieu[2] située dans l'actuel parc Michel-d'Ornano, une bombe au cobalt est installée. L'épaisse carapace de terre qui la recouvrait assurait une bonne étanchéité nécessaire à la radioprotection.
-Dans l'enceinte de l'hôpital, se trouve le manoir du Vaubenard du XVIe et XVIIe siècles, ancienne matelasserie, qui fait l'objet d'une inscription au titre des Monuments historiques[3].
+De 1925 à 1973, le pavillon 2 a accueilli le centre anticancéreux de Caen (actuel centre François-Baclesse). En 1960, dans l'ancienne glacière souterraine de l'Hôtel-Dieu située dans l'actuel parc Michel-d'Ornano, une bombe au cobalt est installée. L'épaisse carapace de terre qui la recouvrait assurait une bonne étanchéité nécessaire à la radioprotection.
+Dans l'enceinte de l'hôpital, se trouve le manoir du Vaubenard du XVIe et XVIIe siècles, ancienne matelasserie, qui fait l'objet d'une inscription au titre des Monuments historiques.
 En décembre 2005, un nouveau bâtiment polyvalent accueillant les services de pédiatrie et de pédopsychiatrie est ouvert.
 L'activité médicale sur le site est progressivement réduite à partir de la fin des années 2000 au profit du plateau Côte de Nacre :
 en décembre 2009, déménagement des activités du pôle Femme-Enfant et du service d'hématologie vers l'hôpital Femme-Enfant-Hématologie ;
 en mai 2015, déménagement du service de dermatologie ;
 en juin 2015, déménagement du service de néphrologie-hémodialyse ;
-en mars 2017, déménagement de la direction du système d'information[4].
-En 2020, ouvre un nouveau service de 45 lit de soins de suite et de réadaptation dans le cadre d’un partenariat avec la Fondation hospitalière de la Miséricorde[5].
-À l'emplacement de l'hôpital, doit être créé un nouveau quartier appelé « Coteaux de l'Abbaye » où doivent se côtoyer des habitations (42 500 m2 de logements, soit environ 600 logements), des services (500 m2) et des activités (5 000 m2 de tertiaires). Quelques bâtiments de l'hôpital sont conservés (la chapelle et les bâtiments l'environnant, le manoir, les pavillons d’entrée, la maison du jardinier)[6]. Les travaux commencent fin octobre 2021 (premier chantier de désamiantage)[7].
-Début 2023, l'activité médicale sur le site est la suivante[4] :
+en mars 2017, déménagement de la direction du système d'information.
+En 2020, ouvre un nouveau service de 45 lit de soins de suite et de réadaptation dans le cadre d’un partenariat avec la Fondation hospitalière de la Miséricorde.
+À l'emplacement de l'hôpital, doit être créé un nouveau quartier appelé « Coteaux de l'Abbaye » où doivent se côtoyer des habitations (42 500 m2 de logements, soit environ 600 logements), des services (500 m2) et des activités (5 000 m2 de tertiaires). Quelques bâtiments de l'hôpital sont conservés (la chapelle et les bâtiments l'environnant, le manoir, les pavillons d’entrée, la maison du jardinier). Les travaux commencent fin octobre 2021 (premier chantier de désamiantage).
+Début 2023, l'activité médicale sur le site est la suivante :
 Centre d'évaluation et de traitement de la douleur ;
 Psychiatrie de l'enfant et de l'adolescent ;
 Centre Ressources Autisme (CRA) ;
